--- a/compiled data 2011-2015.xlsx
+++ b/compiled data 2011-2015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cola\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B25C69-DDBF-4E55-934E-9C1A20332027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{484D8CCD-27E4-4DE2-98FE-4A869F34BE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{053404EF-5DEF-4C9C-A014-4EA6DC80E41E}"/>
   </bookViews>
@@ -3977,7 +3977,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="169" formatCode="[$-3409]mmmm\ dd\,\ yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -4067,10 +4067,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4410,7 +4410,7 @@
   <dimension ref="A1:J2037"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1812" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I1822" sqref="I1822:J1822"/>
+      <selection activeCell="I1830" sqref="I1830"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
